--- a/results/CNN_2layers_adaptive_maxpool=3/cm_CNN_2layers_adaptive_maxpool_3_PLV.xlsx
+++ b/results/CNN_2layers_adaptive_maxpool=3/cm_CNN_2layers_adaptive_maxpool_3_PLV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_maxpool=3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBFEDB3-796E-45F6-8D33-8F6920E7FD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3392C0-AAD3-472E-9BCB-399D20A8CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Identifier</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>sub15ex3</t>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,6 +205,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -553,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -593,7 +598,7 @@
         <v>0.83545329301090765</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -610,7 +615,7 @@
         <v>0.81149511228100446</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -627,7 +632,7 @@
         <v>0.81237985141137226</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -644,7 +649,7 @@
         <v>0.73903789420641375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -661,7 +666,7 @@
         <v>0.83064103802698652</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -678,7 +683,7 @@
         <v>0.867384595478493</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -695,7 +700,7 @@
         <v>0.73525976794412073</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -712,7 +717,7 @@
         <v>0.82156713782540369</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -729,7 +734,7 @@
         <v>0.86828538896202367</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -746,7 +751,7 @@
         <v>0.87976565854606537</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -763,7 +768,7 @@
         <v>0.72544860119386512</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -780,7 +785,7 @@
         <v>0.83669292001286377</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -797,7 +802,7 @@
         <v>0.81658601057652613</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -814,7 +819,7 @@
         <v>0.83466241969802613</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -830,12 +835,8 @@
       <c r="E16">
         <v>0.77411727300315436</v>
       </c>
-      <c r="F16">
-        <f>AVERAGE(B2:B16)</f>
-        <v>81.769219456915707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -852,7 +853,7 @@
         <v>0.82581653712312852</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -869,7 +870,7 @@
         <v>0.89662779628781786</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -886,7 +887,7 @@
         <v>0.81220324163160629</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -903,7 +904,7 @@
         <v>0.82289696633999365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -920,7 +921,7 @@
         <v>0.91458877897619273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -937,7 +938,7 @@
         <v>0.83842281304510391</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -954,7 +955,7 @@
         <v>0.89691362717244982</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -971,7 +972,7 @@
         <v>0.93463085851717731</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -988,7 +989,7 @@
         <v>0.95485008626186263</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>0.90454265578543536</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>0.87638036706688927</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>0.89095013584981531</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>0.82582705039788384</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>0.81499868004224241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1089,12 +1090,8 @@
       <c r="E31">
         <v>0.77947551736269693</v>
       </c>
-      <c r="F31">
-        <f>AVERAGE(B2:B31)</f>
-        <v>84.355556708968066</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>0.86558147047517564</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>0.88921063047268711</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1145,7 +1142,7 @@
         <v>0.92716181785830365</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>0.81219303379573804</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1179,7 +1176,7 @@
         <v>0.74288470529106598</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1196,7 +1193,7 @@
         <v>0.92906278574385315</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1213,7 +1210,7 @@
         <v>0.78513820904432463</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1227,7 @@
         <v>0.85197598236893435</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>0.87531380234835898</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>0.83081977203875435</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>0.75109069234397052</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>0.72788179593557967</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1315,7 +1312,7 @@
         <v>0.95413141587538297</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1332,7 +1329,7 @@
         <v>0.9344395283228456</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1348,9 +1345,18 @@
       <c r="E46">
         <v>0.97899638093715979</v>
       </c>
-      <c r="F46">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
         <f>AVERAGE(B2:B46)</f>
         <v>84.905815217547996</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE(E2:E46)</f>
+        <v>0.84519520215310329</v>
       </c>
     </row>
   </sheetData>
